--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ponkarthik\POC\git-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD23A14C-9F55-42E1-A25E-3EB54E0341CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237DC506-A9A1-437D-A796-EC6C41DEC006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>qqwQWQW</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>ASAS</t>
+  </si>
+  <si>
+    <t>dsds</t>
+  </si>
+  <si>
+    <t>sdsds</t>
+  </si>
+  <si>
+    <t>asasas</t>
   </si>
 </sst>
 </file>
@@ -351,15 +360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -367,9 +376,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
